--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace_multi.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace_multi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IncomingDeliveries" sheetId="7" r:id="rId1"/>
@@ -811,6 +811,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -824,13 +831,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1138,12 +1138,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="85.5703125" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" customWidth="1"/>
+    <col min="2" max="2" width="89.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
@@ -1208,19 +1208,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="1" max="1" width="39.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="11.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="9.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7" style="2" customWidth="1"/>
     <col min="13" max="13" width="21" style="2" customWidth="1"/>
     <col min="14" max="14" width="17.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="43.28515625" style="2" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="31"/>
     <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1595,6 +1597,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
@@ -1611,7 +1614,6 @@
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">
@@ -1669,22 +1671,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="10.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="2"/>
-    <col min="9" max="9" width="30.28515625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="44.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="49.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="54" style="2" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" style="31"/>
     <col min="13" max="13" width="11.42578125" style="2"/>
     <col min="14" max="14" width="14.5703125" style="2" customWidth="1"/>
@@ -1695,27 +1698,27 @@
       <c r="A1" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="49" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="52" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="49" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="51" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="49" t="s">
         <v>122</v>
       </c>
       <c r="M1" s="47"/>
@@ -1726,7 +1729,7 @@
       <c r="R1" s="36"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="19" t="s">
         <v>113</v>
       </c>
@@ -1751,9 +1754,9 @@
       <c r="I2" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="50"/>
+      <c r="J2" s="52"/>
       <c r="K2" s="38"/>
-      <c r="L2" s="55"/>
+      <c r="L2" s="50"/>
       <c r="M2" s="48"/>
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
@@ -2165,6 +2168,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="L1:L2"/>
@@ -2172,12 +2181,6 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576 D3:D1048576">

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace_multi.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace_multi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IncomingDeliveries" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="122">
   <si>
     <t>Product Number</t>
   </si>
@@ -355,16 +355,6 @@
   </si>
   <si>
     <t>StationID (Auto)</t>
-  </si>
-  <si>
-    <t>Part In Lot [%] bedeutet: wie groß ist der prozentuale Anteil dieser Zutat an der Gesamtrezeptur</t>
-  </si>
-  <si>
-    <t>"LotID In Focus" muss nur ausgefüllt werden, falls mehrere Lots in Focus sind.
-Empfehlung: nur einen "Lot in Focus" pro Exceltabelle abfragen; dadurch gibt es im Tabellenblatt
-- "Lot In Focus" nur eine eingetragene Zeile
-- "IncomingDeliveries" die zugehörigen Zutaten
-- "OutgoingDeliveries" nur die Empfänger dieses Lots</t>
   </si>
   <si>
     <t>Zellen, die bereits vom Receiver ausgefüllt sind, werden gesperrt sein!!!</t>
@@ -644,7 +634,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -724,10 +714,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -811,13 +797,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -831,6 +810,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1144,36 +1130,36 @@
   <cols>
     <col min="1" max="1" width="85.5703125" customWidth="1"/>
     <col min="2" max="2" width="89.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="35"/>
+    <col min="3" max="3" width="11.42578125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+    <row r="1" spans="1:9" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="34"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1202,7 +1188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -1223,95 +1209,95 @@
     <col min="13" max="13" width="21" style="2" customWidth="1"/>
     <col min="14" max="14" width="17.140625" style="2" customWidth="1"/>
     <col min="15" max="15" width="43.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="31"/>
+    <col min="16" max="16" width="9.140625" style="30"/>
     <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43" t="s">
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="43" t="s">
+      <c r="N1" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="P1" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
     </row>
     <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G2" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>115</v>
-      </c>
       <c r="J2" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="K2" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O3" s="2" t="str">
@@ -1597,21 +1583,21 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
   </mergeCells>
@@ -1671,7 +1657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1688,81 +1674,81 @@
     <col min="9" max="9" width="15.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="49.42578125" style="2" customWidth="1"/>
     <col min="11" max="11" width="54" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="31"/>
+    <col min="12" max="12" width="11.42578125" style="30"/>
     <col min="13" max="13" width="11.42578125" style="2"/>
     <col min="14" max="14" width="14.5703125" style="2" customWidth="1"/>
     <col min="15" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="52"/>
+      <c r="J1" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="L1" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="46"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="51" t="s">
+      <c r="C2" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="L1" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="E2" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="I2" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2168,12 +2154,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="L1:L2"/>
@@ -2181,6 +2161,12 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576 D3:D1048576">
@@ -2939,7 +2925,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2960,7 +2946,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2977,16 +2963,6 @@
       </c>
       <c r="B4" s="2" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace_multi.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace_multi.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="IncomingDeliveries" sheetId="7" r:id="rId1"/>
+    <sheet name="Deliveries2Lot" sheetId="7" r:id="rId1"/>
     <sheet name="Lot" sheetId="1" r:id="rId2"/>
-    <sheet name="OutgoingDeliveries" sheetId="5" r:id="rId3"/>
+    <sheet name="Deliveries" sheetId="5" r:id="rId3"/>
     <sheet name="Stations" sheetId="2" r:id="rId4"/>
     <sheet name="LookUp" sheetId="3" r:id="rId5"/>
     <sheet name="Help" sheetId="6" r:id="rId6"/>
@@ -753,6 +753,35 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -761,40 +790,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -810,13 +817,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1174,7 +1174,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>OutgoingDeliveries!$K:$K</xm:f>
+            <xm:f>Deliveries!$K:$K</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -1188,7 +1188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -1214,56 +1214,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="42" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42" t="s">
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="38" t="s">
         <v>120</v>
       </c>
       <c r="Q1" s="46"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
     </row>
     <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="21" t="s">
         <v>114</v>
       </c>
@@ -1288,16 +1288,16 @@
       <c r="L2" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="45"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="39"/>
       <c r="Q2" s="47"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O3" s="2" t="str">
@@ -1583,16 +1583,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
@@ -1600,6 +1590,16 @@
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="P1:P2"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">
@@ -1657,7 +1657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1681,41 +1681,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="48" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="51" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="48" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="48" t="s">
         <v>120</v>
       </c>
       <c r="M1" s="46"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="19" t="s">
         <v>111</v>
       </c>
@@ -1740,15 +1740,15 @@
       <c r="I2" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="54"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="49"/>
       <c r="M2" s="47"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2154,6 +2154,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="L1:L2"/>
@@ -2161,12 +2167,6 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576 D3:D1048576">

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace_multi.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace_multi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stations" sheetId="2" r:id="rId1"/>
@@ -13,12 +13,20 @@
     <sheet name="LookUp" sheetId="3" r:id="rId4"/>
     <sheet name="Help" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="DeliveryIDs">Deliveries!$O$3:$O$13614</definedName>
+    <definedName name="Sampling">LookUp!$A$2:$A$20</definedName>
+    <definedName name="StationIDs">Stations!$A$2:$A$1000</definedName>
+    <definedName name="ToB">LookUp!$B$2:$B$20</definedName>
+    <definedName name="Treatment">LookUp!$C$2:$C$20</definedName>
+    <definedName name="Units">LookUp!$D$2:$D$40</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="106">
   <si>
     <t>Product Name</t>
   </si>
@@ -38,9 +46,6 @@
     <t>Street</t>
   </si>
   <si>
-    <t>ZIP Code</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -53,9 +58,6 @@
     <t>Street Number</t>
   </si>
   <si>
-    <t>Receiver</t>
-  </si>
-  <si>
     <t>Type of business</t>
   </si>
   <si>
@@ -99,78 +101,6 @@
   </si>
   <si>
     <t>Type of Business</t>
-  </si>
-  <si>
-    <t>Fresh supplier</t>
-  </si>
-  <si>
-    <t>Frozen supplier</t>
-  </si>
-  <si>
-    <t>Freezing processor</t>
-  </si>
-  <si>
-    <t>Primary Producer</t>
-  </si>
-  <si>
-    <t>Storage</t>
-  </si>
-  <si>
-    <t>Supplier (unspecified)</t>
-  </si>
-  <si>
-    <t>Trader</t>
-  </si>
-  <si>
-    <t>Packager</t>
-  </si>
-  <si>
-    <t>Supermarket</t>
-  </si>
-  <si>
-    <t>Local retailer</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>Primärproduktion</t>
-  </si>
-  <si>
-    <t>Händler</t>
-  </si>
-  <si>
-    <t>Transporteur/Lager bzw. Händler mit Tierkontakt</t>
-  </si>
-  <si>
-    <t>Schlachthof</t>
-  </si>
-  <si>
-    <t>Zerlegebetrieb</t>
-  </si>
-  <si>
-    <t>Schlachthof und Zerlegebetrieb</t>
-  </si>
-  <si>
-    <t>Hersteller von Fleischwaren</t>
-  </si>
-  <si>
-    <t>Verarbeitungsbetrieb für Fleischwaren</t>
-  </si>
-  <si>
-    <t>Verpacker</t>
-  </si>
-  <si>
-    <t>Verkaufsstelle</t>
-  </si>
-  <si>
-    <t>Ausgabestelle für verzehrsfertige Lebensmittel</t>
-  </si>
-  <si>
-    <t>Verzehrer</t>
-  </si>
-  <si>
-    <t>Importeur</t>
   </si>
   <si>
     <t>nicht bekannt</t>
@@ -344,9 +274,6 @@
     </r>
   </si>
   <si>
-    <t>StationID (Auto)</t>
-  </si>
-  <si>
     <t>Zellen, die bereits vom Receiver ausgefüllt sind, werden gesperrt sein!!!</t>
   </si>
   <si>
@@ -356,12 +283,6 @@
     <t>DeliveryID (Auto)</t>
   </si>
   <si>
-    <t>Delivery Departure</t>
-  </si>
-  <si>
-    <t>Delivery Arrival</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
@@ -374,27 +295,12 @@
     <t>Type / Unit</t>
   </si>
   <si>
-    <t>Volume of production</t>
-  </si>
-  <si>
-    <t>Production</t>
-  </si>
-  <si>
-    <t>Expiry / Best before date</t>
-  </si>
-  <si>
     <t>Treatment of product during production</t>
   </si>
   <si>
-    <t>Additional Fields:</t>
-  </si>
-  <si>
     <t>Mixture ratio</t>
   </si>
   <si>
-    <t>Packing units</t>
-  </si>
-  <si>
     <t>Into DeliveryID</t>
   </si>
   <si>
@@ -405,6 +311,63 @@
   </si>
   <si>
     <t>Item Number</t>
+  </si>
+  <si>
+    <t>Delivery Date Departure</t>
+  </si>
+  <si>
+    <t>Delivery Date Arrival</t>
+  </si>
+  <si>
+    <t>Recipient</t>
+  </si>
+  <si>
+    <t>Best before date</t>
+  </si>
+  <si>
+    <t>Production date</t>
+  </si>
+  <si>
+    <t>Additional Fields -&gt;</t>
+  </si>
+  <si>
+    <t>Postal</t>
+  </si>
+  <si>
+    <t>Lot size</t>
+  </si>
+  <si>
+    <t>Unit weigt/vol./pck.</t>
+  </si>
+  <si>
+    <t>Endkunde</t>
+  </si>
+  <si>
+    <t>Bäcker</t>
+  </si>
+  <si>
+    <t>Gewürzhändler</t>
+  </si>
+  <si>
+    <t>Gärtnerei</t>
+  </si>
+  <si>
+    <t>Samenerzeuger</t>
+  </si>
+  <si>
+    <t>Kuchenesser</t>
+  </si>
+  <si>
+    <t>Großbäckerei</t>
+  </si>
+  <si>
+    <t>Supermarkt</t>
+  </si>
+  <si>
+    <t>Bioladen</t>
+  </si>
+  <si>
+    <t>Primärerzeuger</t>
   </si>
 </sst>
 </file>
@@ -611,7 +574,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -699,10 +662,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -727,10 +686,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -738,6 +693,33 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -752,16 +734,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -774,31 +748,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1103,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T50"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,382 +1074,76 @@
     <col min="6" max="8" width="9.140625" style="2"/>
     <col min="9" max="9" width="16.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="18" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="11" width="11.5703125" style="18" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K2" s="2" t="str">
-        <f>A2&amp;", "&amp;B2&amp;", "&amp;C2&amp;" "&amp;D2&amp;", "&amp;F2&amp;", "&amp;I2</f>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-      <c r="L2" s="35"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K3" s="2" t="str">
-        <f t="shared" ref="K3:K50" si="0">A3&amp;", "&amp;B3&amp;", "&amp;C3&amp;" "&amp;D3&amp;", "&amp;F3&amp;", "&amp;I3</f>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="22" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="23" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="24" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="25" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="26" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="27" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="28" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="29" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="30" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="31" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="32" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="46" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K46" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="47" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="48" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K48" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K49" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
-    </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K50" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, ,  , , </v>
-      </c>
+      <c r="K1" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K2" s="33"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+      <formula1>ToB</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>LookUp!$B$2:$B$26</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2:J1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE49"/>
+  <dimension ref="A1:AE100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O13614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,20 +1151,20 @@
     <col min="1" max="1" width="31.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="39.42578125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="18"/>
-    <col min="15" max="15" width="10.5703125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="39.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10" style="18" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="2" customWidth="1"/>
     <col min="18" max="18" width="7.140625" style="2" customWidth="1"/>
     <col min="19" max="19" width="6.5703125" style="2" customWidth="1"/>
     <col min="20" max="20" width="6.140625" style="2" customWidth="1"/>
@@ -1528,492 +1177,776 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="39" t="s">
+      <c r="A1" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="N1" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="O1" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="P1" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q1" s="42"/>
+      <c r="D1" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="46"/>
+      <c r="N1" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="41" t="s">
+        <v>86</v>
+      </c>
       <c r="R1" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
+        <v>91</v>
+      </c>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
       <c r="U1" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
+        <v>90</v>
+      </c>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
       <c r="X1" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y1" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
+        <v>81</v>
+      </c>
+      <c r="Y1" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
     </row>
     <row r="2" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>107</v>
+      <c r="A2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>80</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>107</v>
+        <v>77</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="R2" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="T2" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="U2" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="V2" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="W2" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
+        <v>77</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="44"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="T2" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="V2" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M3" s="2" t="str">
-        <f t="shared" ref="M3:M49" si="0">A3&amp;" "&amp;B3&amp;", "&amp;C3</f>
-        <v xml:space="preserve"> , </v>
+      <c r="O3" s="2" t="str">
+        <f>A3&amp;";"&amp;B3&amp;";"&amp;C3&amp;";"&amp;F3&amp;"."&amp;G3&amp;"."&amp;H3&amp;";"&amp;N3</f>
+        <v>;;;..;</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
+      <c r="O4" s="2" t="str">
+        <f t="shared" ref="O4:O67" si="0">A4&amp;";"&amp;B4&amp;";"&amp;C4&amp;";"&amp;F4&amp;"."&amp;G4&amp;"."&amp;H4&amp;";"&amp;N4</f>
+        <v>;;;..;</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
+      <c r="O5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
+      <c r="O6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
+      <c r="O7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
+      <c r="O8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
+      <c r="O9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
+      <c r="O10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
+      <c r="O11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
+      <c r="O12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
+      <c r="O13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
+      <c r="O14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
+      <c r="O15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="17" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="18" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="19" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="20" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="21" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="22" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="23" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="24" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="25" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="26" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="27" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="28" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="29" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="30" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="31" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="32" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M39" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M40" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M42" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M46" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M48" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
-      </c>
-    </row>
-    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M49" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> , </v>
+      <c r="O16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="18" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="19" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="20" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="21" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="22" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="23" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="24" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="25" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="26" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="27" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="28" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="29" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="30" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="31" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="32" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="35" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="37" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="38" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="39" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="40" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="41" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="42" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="43" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="44" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="45" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="46" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="47" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="48" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="49" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="50" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="51" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="52" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="53" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="54" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="55" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="56" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="57" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="58" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="59" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="60" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="61" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="62" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="63" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="64" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="65" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="66" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="67" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O67" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="68" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O68" s="2" t="str">
+        <f t="shared" ref="O68:O98" si="1">A68&amp;";"&amp;B68&amp;";"&amp;C68&amp;";"&amp;F68&amp;"."&amp;G68&amp;"."&amp;H68&amp;";"&amp;N68</f>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="69" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O69" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="70" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O70" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="71" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O71" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="72" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O72" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="73" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O73" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="74" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O74" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="75" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O75" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="76" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O76" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="77" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O77" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="78" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O78" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="79" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O79" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="80" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O80" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="81" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O81" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="82" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O82" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="83" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O83" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="84" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O84" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="85" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O85" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="86" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O86" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="87" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O87" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="88" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O88" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="89" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O89" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="90" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O90" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="91" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O91" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="92" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O92" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="93" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O93" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="94" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O94" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="95" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O95" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="96" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O96" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="97" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O97" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="98" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O98" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="99" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O99" s="2" t="str">
+        <f>A99&amp;";"&amp;B99&amp;";"&amp;C99&amp;";"&amp;F99&amp;"."&amp;G99&amp;"."&amp;H99&amp;";"&amp;N99</f>
+        <v>;;;..;</v>
+      </c>
+    </row>
+    <row r="100" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O100" s="2" t="str">
+        <f t="shared" ref="O100" si="2">A100&amp;";"&amp;B100&amp;";"&amp;C100&amp;";"&amp;F100&amp;"."&amp;G100&amp;"."&amp;H100&amp;";"&amp;N100</f>
+        <v>;;;..;</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="P1:P2"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="X1:X2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="N1:N2"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P1048576 J3:J1048576">
+  <dataValidations count="8">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576 L3:L1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576 R3:R1048576 D3:D1048576 G3:G1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576 R3:R1048576 F3:F1048576 I3:I1048576">
       <formula1>1</formula1>
       <formula2>31</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V1048576 S3:S1048576 E3:E1048576 H3:H1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V1048576 S3:S1048576 G3:G1048576 J3:J1048576">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W1048576 T3:T1048576 F3:F1048576 I3:I1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W1048576 T3:T1048576 H3:H1048576 K3:K1048576">
       <formula1>1900</formula1>
       <formula2>3000</formula2>
     </dataValidation>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L1048576">
-      <formula1>$K$2:$K$50</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576 A3:A1048576">
+      <formula1>StationIDs</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M1048576 E3:E1048576">
+      <formula1>Units</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X1048576">
+      <formula1>Treatment</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y1048576">
+      <formula1>Sampling</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>LookUp!$D$2:$D$32</xm:f>
-          </x14:formula1>
-          <xm:sqref>Q3:Q1048576 K3:K1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Stations!$K$2:$K$50</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>LookUp!$C$2:$C$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>X3:X1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>LookUp!$A$2:$A$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>Y3:Y1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2021,9 +1954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2034,16 +1965,16 @@
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -2061,24 +1992,13 @@
       <c r="I2" s="16"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
-      <formula1>#REF!</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576 A2:A1048576">
+      <formula1>DeliveryIDs</formula1>
     </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A1:XFD1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Deliveries!$M:$M</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2086,7 +2006,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2099,312 +2021,270 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D16" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="10" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2427,23 +2307,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2451,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace_multi.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace_multi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Stations" sheetId="2" r:id="rId1"/>
@@ -15,11 +15,11 @@
   </sheets>
   <definedNames>
     <definedName name="DeliveryIDs">Deliveries!$O$3:$O$13614</definedName>
-    <definedName name="Sampling">LookUp!$A$2:$A$20</definedName>
+    <definedName name="Sampling">LookUp!$A$2:$A$13</definedName>
     <definedName name="StationIDs">Stations!$A$2:$A$1000</definedName>
-    <definedName name="ToB">LookUp!$B$2:$B$20</definedName>
-    <definedName name="Treatment">LookUp!$C$2:$C$20</definedName>
-    <definedName name="Units">LookUp!$D$2:$D$40</definedName>
+    <definedName name="ToB">LookUp!$B$2:$B$12</definedName>
+    <definedName name="Treatment">LookUp!$C$2:$C$11</definedName>
+    <definedName name="Units">LookUp!$D$2:$D$32</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -697,7 +697,46 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -712,48 +751,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,72 +1177,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50" t="s">
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="45" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="43" t="s">
+      <c r="M1" s="39"/>
+      <c r="N1" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="41" t="s">
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="41" t="s">
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="Y1" s="42" t="s">
+      <c r="Y1" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
     </row>
     <row r="2" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="35" t="s">
         <v>85</v>
       </c>
@@ -1273,10 +1273,10 @@
       <c r="M2" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="36"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="41"/>
       <c r="R2" s="27" t="s">
         <v>77</v>
       </c>
@@ -1295,14 +1295,14 @@
       <c r="W2" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O3" s="2" t="str">
@@ -1894,16 +1894,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="P1:P2"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AD1:AD2"/>
@@ -1915,6 +1905,16 @@
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="X1:X2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="P1:P2"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576 L3:L1048576">
@@ -1954,7 +1954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2006,9 +2006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace_multi.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace_multi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Stations" sheetId="2" r:id="rId1"/>
@@ -14,19 +14,19 @@
     <sheet name="Help" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="DeliveryIDs">Deliveries!$O$3:$O$13614</definedName>
+    <definedName name="DeliveryIDs">Deliveries!$A$3:$A$13614</definedName>
     <definedName name="Sampling">LookUp!$A$2:$A$13</definedName>
     <definedName name="StationIDs">Stations!$A$2:$A$1000</definedName>
     <definedName name="ToB">LookUp!$B$2:$B$12</definedName>
     <definedName name="Treatment">LookUp!$C$2:$C$11</definedName>
     <definedName name="Units">LookUp!$D$2:$D$32</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="104">
   <si>
     <t>Product Name</t>
   </si>
@@ -247,42 +247,9 @@
     <t>IMMER echte PFLICHT!!! Falls nicht bekannt, dann bitte eines ausdenken!</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">ist bereits ausgefüllt vom Receiver, kann aber in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>unbenutzten</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Zeilen ergänzt werden vom Inspektor</t>
-    </r>
-  </si>
-  <si>
-    <t>Zellen, die bereits vom Receiver ausgefüllt sind, werden gesperrt sein!!!</t>
-  </si>
-  <si>
     <t>Station</t>
   </si>
   <si>
-    <t>DeliveryID (Auto)</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
@@ -368,6 +335,9 @@
   </si>
   <si>
     <t>Primärerzeuger</t>
+  </si>
+  <si>
+    <t>DeliveryID</t>
   </si>
 </sst>
 </file>
@@ -469,18 +439,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -574,15 +538,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -619,139 +580,141 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1060,9 +1023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1074,55 +1035,55 @@
     <col min="6" max="8" width="9.140625" style="2"/>
     <col min="9" max="9" width="16.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="18" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="17" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
+      <c r="K1" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K2" s="33"/>
+      <c r="K2" s="32"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1140,30 +1101,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE100"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O13614"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="39.42578125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10" style="18" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="39.42578125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10" style="17" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" style="2" customWidth="1"/>
     <col min="18" max="18" width="7.140625" style="2" customWidth="1"/>
     <col min="19" max="19" width="6.5703125" style="2" customWidth="1"/>
@@ -1177,765 +1138,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="40"/>
+      <c r="O1" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+    </row>
+    <row r="2" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="O1" s="48" t="s">
+      <c r="I2" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q1" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="R1" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y1" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-    </row>
-    <row r="2" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="J2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="T2" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="U2" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="V2" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="W2" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O3" s="2" t="str">
-        <f>A3&amp;";"&amp;B3&amp;";"&amp;C3&amp;";"&amp;F3&amp;"."&amp;G3&amp;"."&amp;H3&amp;";"&amp;N3</f>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O4" s="2" t="str">
-        <f t="shared" ref="O4:O67" si="0">A4&amp;";"&amp;B4&amp;";"&amp;C4&amp;";"&amp;F4&amp;"."&amp;G4&amp;"."&amp;H4&amp;";"&amp;N4</f>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="18" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="19" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="20" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="21" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="22" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="23" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="24" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="25" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="26" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="27" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="28" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="29" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="30" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="31" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="32" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="37" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="38" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="39" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O39" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="40" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O40" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="41" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="42" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O42" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="43" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="44" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="45" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="46" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O46" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="47" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="48" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O48" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="49" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O49" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="50" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O50" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="51" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O51" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="52" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O52" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="53" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O53" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="54" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O54" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="55" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O55" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="56" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O56" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="57" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O57" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="58" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O58" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="59" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O59" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="60" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O60" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="61" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O61" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="62" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O62" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="63" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O63" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="64" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O64" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="65" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O65" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="66" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O66" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="67" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O67" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="68" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O68" s="2" t="str">
-        <f t="shared" ref="O68:O98" si="1">A68&amp;";"&amp;B68&amp;";"&amp;C68&amp;";"&amp;F68&amp;"."&amp;G68&amp;"."&amp;H68&amp;";"&amp;N68</f>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="69" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O69" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="70" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O70" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="71" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O71" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="72" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O72" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="73" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O73" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="74" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O74" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="75" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O75" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="76" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O76" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="77" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O77" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="78" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O78" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="79" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O79" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="80" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O80" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="81" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O81" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="82" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O82" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="83" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O83" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="84" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O84" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="85" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O85" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="86" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O86" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="87" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O87" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="88" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O88" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="89" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O89" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="90" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O90" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="91" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O91" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="92" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O92" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="93" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O93" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="94" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O94" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="95" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O95" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="96" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O96" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="97" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O97" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="98" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O98" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="99" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O99" s="2" t="str">
-        <f>A99&amp;";"&amp;B99&amp;";"&amp;C99&amp;";"&amp;F99&amp;"."&amp;G99&amp;"."&amp;H99&amp;";"&amp;N99</f>
-        <v>;;;..;</v>
-      </c>
-    </row>
-    <row r="100" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O100" s="2" t="str">
-        <f t="shared" ref="O100" si="2">A100&amp;";"&amp;B100&amp;";"&amp;C100&amp;";"&amp;F100&amp;"."&amp;G100&amp;"."&amp;H100&amp;";"&amp;N100</f>
-        <v>;;;..;</v>
-      </c>
+      <c r="O2" s="38"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="X1:X2"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="O1:O2"/>
     <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="X1:X2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576 L3:L1048576">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576 M3:M1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576 R3:R1048576 F3:F1048576 I3:I1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576 R3:R1048576 G3:G1048576 J3:J1048576">
       <formula1>1</formula1>
       <formula2>31</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V1048576 S3:S1048576 G3:G1048576 J3:J1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V1048576 S3:S1048576 H3:H1048576 K3:K1048576">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W1048576 T3:T1048576 H3:H1048576 K3:K1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W1048576 T3:T1048576 I3:I1048576 L3:L1048576">
       <formula1>1900</formula1>
       <formula2>3000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576 A3:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O1048576 B3:B1048576">
       <formula1>StationIDs</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M1048576 E3:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576 F3:F1048576">
       <formula1>Units</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X1048576">
@@ -1960,36 +1333,36 @@
   <cols>
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="22"/>
+    <col min="3" max="3" width="11.42578125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+    <row r="1" spans="1:9" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="21"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2018,270 +1391,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2292,9 +1665,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2310,25 +1683,17 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>68</v>
+      <c r="A3" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
         <v>72</v>
       </c>
     </row>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace_multi.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace_multi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stations" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
   <si>
     <t>Product Name</t>
   </si>
@@ -289,12 +289,6 @@
     <t>Recipient</t>
   </si>
   <si>
-    <t>Best before date</t>
-  </si>
-  <si>
-    <t>Production date</t>
-  </si>
-  <si>
     <t>Additional Fields -&gt;</t>
   </si>
   <si>
@@ -338,6 +332,18 @@
   </si>
   <si>
     <t>DeliveryID</t>
+  </si>
+  <si>
+    <t>Production date Day</t>
+  </si>
+  <si>
+    <t>Production date Month</t>
+  </si>
+  <si>
+    <t>Production date Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Best before date</t>
   </si>
 </sst>
 </file>
@@ -459,7 +465,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -532,13 +538,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -623,10 +642,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -658,6 +673,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -679,13 +712,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -707,16 +733,12 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1040,22 +1062,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="10" t="s">
@@ -1064,26 +1086,26 @@
       <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
+        <v>87</v>
+      </c>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K2" s="32"/>
+      <c r="K2" s="31"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1101,9 +1123,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -1126,89 +1148,89 @@
     <col min="15" max="15" width="39.42578125" style="2" customWidth="1"/>
     <col min="16" max="16" width="10" style="17" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="6.140625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="6.42578125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="7.42578125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="7" style="2" customWidth="1"/>
-    <col min="24" max="24" width="21" style="2" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="18" max="18" width="8.42578125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="7.85546875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="21" style="2" customWidth="1"/>
+    <col min="23" max="23" width="17.140625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="44"/>
+      <c r="O1" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" s="40"/>
-      <c r="O1" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="P1" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q1" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="R1" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="41" t="s">
+      <c r="T1" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="U1" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="Y1" s="51" t="s">
+      <c r="W1" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-    </row>
-    <row r="2" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="34" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+    </row>
+    <row r="2" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="33" t="s">
         <v>77</v>
       </c>
       <c r="G2" s="25" t="s">
@@ -1235,48 +1257,24 @@
       <c r="N2" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="T2" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="U2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="V2" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="W2" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
+  <mergeCells count="23">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1288,6 +1286,18 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576 M3:M1048576">
@@ -1297,11 +1307,11 @@
       <formula1>1</formula1>
       <formula2>31</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V1048576 S3:S1048576 H3:H1048576 K3:K1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S1048576 H3:H1048576 K3:K1048576">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W1048576 T3:T1048576 I3:I1048576 L3:L1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576 I3:I1048576 L3:L1048576">
       <formula1>1900</formula1>
       <formula2>3000</formula2>
     </dataValidation>
@@ -1311,10 +1321,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576 F3:F1048576">
       <formula1>Units</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V1048576">
       <formula1>Treatment</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W1048576">
       <formula1>Sampling</formula1>
     </dataValidation>
   </dataValidations>
@@ -1344,7 +1354,7 @@
         <v>80</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>79</v>
@@ -1409,7 +1419,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>67</v>
@@ -1423,7 +1433,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>66</v>
@@ -1437,7 +1447,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>59</v>
@@ -1451,7 +1461,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>65</v>
@@ -1465,7 +1475,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>60</v>
@@ -1479,7 +1489,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -1493,7 +1503,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>61</v>
@@ -1507,7 +1517,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>62</v>
@@ -1521,7 +1531,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>63</v>
@@ -1535,7 +1545,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>64</v>
@@ -1667,7 +1677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace_multi.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace_multi.xlsx
@@ -673,24 +673,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -712,6 +694,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -732,6 +721,17 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1109,12 +1109,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
-      <formula1>1</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
       <formula1>ToB</formula1>
     </dataValidation>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1158,43 +1156,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="48" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="43" t="s">
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="41" t="s">
+      <c r="N1" s="39"/>
+      <c r="O1" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="40" t="s">
         <v>83</v>
       </c>
       <c r="R1" s="51" t="s">
@@ -1209,24 +1207,24 @@
       <c r="U1" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="V1" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="W1" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
     </row>
     <row r="2" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="33" t="s">
         <v>82</v>
       </c>
@@ -1257,24 +1255,36 @@
       <c r="N2" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="35"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="41"/>
       <c r="R2" s="52"/>
       <c r="S2" s="52"/>
       <c r="T2" s="52"/>
       <c r="U2" s="52"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1286,18 +1296,6 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576 M3:M1048576">

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace_multi.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace_multi.xlsx
@@ -21,12 +21,12 @@
     <definedName name="Treatment">LookUp!$C$2:$C$11</definedName>
     <definedName name="Units">LookUp!$D$2:$D$32</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="107">
   <si>
     <t>Product Name</t>
   </si>
@@ -232,21 +232,9 @@
     <t>Ultra Heating</t>
   </si>
   <si>
-    <t>"Pflicht"-Felder</t>
-  </si>
-  <si>
-    <t>unterstrichen!</t>
-  </si>
-  <si>
-    <t>muss ausgefüllt werden vom Inspektor</t>
-  </si>
-  <si>
     <t>Sampling</t>
   </si>
   <si>
-    <t>IMMER echte PFLICHT!!! Falls nicht bekannt, dann bitte eines ausdenken!</t>
-  </si>
-  <si>
     <t>Station</t>
   </si>
   <si>
@@ -344,6 +332,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Best before date</t>
+  </si>
+  <si>
+    <t>ALWAYS MANDATORY!!! Please create a lot number if the true number is unknown.</t>
+  </si>
+  <si>
+    <t>Every DeliveryID MUST BE UNIQUE! Apart from this any ID can be used: Words, numbers, formulas (e.g. "=B3&amp;";"&amp;C3&amp;";"&amp;D3&amp;";"&amp;G3&amp;"."&amp;H3&amp;"."&amp;I3&amp;";"&amp;O3")</t>
+  </si>
+  <si>
+    <t>Must be filled in / must be checked by inspector</t>
+  </si>
+  <si>
+    <t>are underlined</t>
+  </si>
+  <si>
+    <t>Mandatory fields</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -673,6 +676,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -694,13 +722,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -722,23 +743,8 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1075,7 +1081,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>6</v>
@@ -1093,7 +1099,7 @@
         <v>10</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L1" s="32"/>
       <c r="M1" s="32"/>
@@ -1156,135 +1162,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="46"/>
+      <c r="O1" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="V1" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+    </row>
+    <row r="2" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="P1" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q1" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="R1" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="S1" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="T1" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="U1" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="V1" s="40" t="s">
+      <c r="G2" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="W1" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-    </row>
-    <row r="2" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>82</v>
-      </c>
       <c r="N2" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
+        <v>73</v>
+      </c>
+      <c r="O2" s="44"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1296,6 +1290,18 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576 M3:M1048576">
@@ -1346,16 +1352,16 @@
   <sheetData>
     <row r="1" spans="1:9" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -1400,7 +1406,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>24</v>
@@ -1417,7 +1423,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>67</v>
@@ -1431,7 +1437,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>66</v>
@@ -1445,7 +1451,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>59</v>
@@ -1459,7 +1465,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>65</v>
@@ -1473,7 +1479,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>60</v>
@@ -1487,7 +1493,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -1501,7 +1507,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>61</v>
@@ -1515,7 +1521,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>62</v>
@@ -1529,7 +1535,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>63</v>
@@ -1543,7 +1549,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>64</v>
@@ -1673,7 +1679,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1686,15 +1692,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>106</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1702,7 +1708,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace_multi.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace_multi.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
   <si>
     <t>Product Name</t>
   </si>
@@ -322,15 +322,6 @@
     <t>DeliveryID</t>
   </si>
   <si>
-    <t>Production date Day</t>
-  </si>
-  <si>
-    <t>Production date Month</t>
-  </si>
-  <si>
-    <t>Production date Year</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Best before date</t>
   </si>
   <si>
@@ -347,6 +338,9 @@
   </si>
   <si>
     <t>Mandatory fields</t>
+  </si>
+  <si>
+    <t>Production date</t>
   </si>
 </sst>
 </file>
@@ -468,7 +462,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -541,26 +535,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -676,30 +657,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -722,6 +681,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -743,7 +709,15 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1127,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -1151,86 +1125,76 @@
     <col min="14" max="14" width="12.28515625" style="2" customWidth="1"/>
     <col min="15" max="15" width="39.42578125" style="2" customWidth="1"/>
     <col min="16" max="16" width="10" style="17" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="8.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="7.85546875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="21" style="2" customWidth="1"/>
-    <col min="23" max="23" width="17.140625" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="2"/>
+    <col min="17" max="19" width="10.5703125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="21" style="2" customWidth="1"/>
+    <col min="21" max="21" width="17.140625" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="45" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="46"/>
-      <c r="O1" s="43" t="s">
+      <c r="N1" s="40"/>
+      <c r="O1" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="S1" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="T1" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="U1" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="V1" s="36" t="s">
+      <c r="T1" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="U1" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-    </row>
-    <row r="2" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+    </row>
+    <row r="2" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="33" t="s">
         <v>78</v>
       </c>
@@ -1261,28 +1225,33 @@
       <c r="N2" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="21">
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -1290,32 +1259,23 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576 M3:M1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576 R3:R1048576 G3:G1048576 J3:J1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576 J3:J1048576">
       <formula1>1</formula1>
       <formula2>31</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S1048576 H3:H1048576 K3:K1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576 K3:K1048576">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576 I3:I1048576 L3:L1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576 L3:L1048576">
       <formula1>1900</formula1>
       <formula2>3000</formula2>
     </dataValidation>
@@ -1325,10 +1285,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576 F3:F1048576">
       <formula1>Units</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
       <formula1>Treatment</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576">
       <formula1>Sampling</formula1>
     </dataValidation>
   </dataValidations>
@@ -1692,15 +1652,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1708,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1716,7 +1676,7 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
